--- a/data/trans_orig/P04B3_2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>88058</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72512</v>
+        <v>72629</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>107400</v>
+        <v>106584</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.159925493945868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1316926213239254</v>
+        <v>0.1319038264815149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1950534853717858</v>
+        <v>0.1935709664936708</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -762,19 +762,19 @@
         <v>68083</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54900</v>
+        <v>55690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81966</v>
+        <v>82723</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1396114078742223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1125784921518958</v>
+        <v>0.114197899912593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1680797765091472</v>
+        <v>0.16963133522992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -783,19 +783,19 @@
         <v>156141</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134735</v>
+        <v>135848</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>178362</v>
+        <v>180747</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1503842981230773</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1297670742058506</v>
+        <v>0.1308389256820318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1717857468619052</v>
+        <v>0.1740829966362462</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>85044</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67200</v>
+        <v>68304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>102683</v>
+        <v>104229</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1544524524094762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.122045128066075</v>
+        <v>0.1240495023149435</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1864868799243981</v>
+        <v>0.1892944875659231</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>85</v>
@@ -833,19 +833,19 @@
         <v>58657</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>47927</v>
+        <v>47140</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71346</v>
+        <v>72471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1202814382680344</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09827843542172376</v>
+        <v>0.09666446725897671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1463007247468312</v>
+        <v>0.1486093224397381</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -854,19 +854,19 @@
         <v>143701</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123907</v>
+        <v>123590</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166831</v>
+        <v>166888</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1384028828528167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1193386930318075</v>
+        <v>0.1190329169271928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1606796488828005</v>
+        <v>0.1607342219652571</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>118421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97780</v>
+        <v>99446</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>139707</v>
+        <v>140369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2150690719538739</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1775825425614326</v>
+        <v>0.1806073961054173</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2537279897150368</v>
+        <v>0.254930050959999</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>127</v>
@@ -904,19 +904,19 @@
         <v>94025</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78586</v>
+        <v>79612</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>109043</v>
+        <v>110111</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1928073655092919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1611477084287841</v>
+        <v>0.1632507662125937</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2236036041910115</v>
+        <v>0.2257937557046003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>248</v>
@@ -925,19 +925,19 @@
         <v>212446</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>187771</v>
+        <v>186929</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>239097</v>
+        <v>238831</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2046131105196202</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1808479270228418</v>
+        <v>0.1800367605196591</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2302809766081399</v>
+        <v>0.2300253707557071</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>259095</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>235792</v>
+        <v>234702</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>282315</v>
+        <v>284389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4705529816907819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4282319726186864</v>
+        <v>0.4262513493589071</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5127246637768048</v>
+        <v>0.5164906700726603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>380</v>
@@ -975,19 +975,19 @@
         <v>266898</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248484</v>
+        <v>248688</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>287206</v>
+        <v>289321</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5472997883484516</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5095402542935429</v>
+        <v>0.509957188212282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5889430806457969</v>
+        <v>0.5932800415510291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>641</v>
@@ -996,19 +996,19 @@
         <v>525994</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>494947</v>
+        <v>492435</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>558421</v>
+        <v>555155</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5065997085044859</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4766975828850467</v>
+        <v>0.474278221571253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5378307712005642</v>
+        <v>0.5346855175044211</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>76074</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62944</v>
+        <v>61747</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>93944</v>
+        <v>94566</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1574346619675576</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1302614265952179</v>
+        <v>0.1277836402375903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.194415569115553</v>
+        <v>0.1957018888539972</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>94</v>
@@ -1121,19 +1121,19 @@
         <v>72428</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>59259</v>
+        <v>59174</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>88174</v>
+        <v>87165</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1711670515890125</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1400459680208039</v>
+        <v>0.139844009716774</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2083786173716642</v>
+        <v>0.2059935207109488</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -1142,19 +1142,19 @@
         <v>148502</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>127409</v>
+        <v>128466</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>170017</v>
+        <v>171698</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1638457950574118</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1405724567225282</v>
+        <v>0.1417394776869646</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1875827233434788</v>
+        <v>0.1894376685532663</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>74122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>59310</v>
+        <v>58790</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91942</v>
+        <v>90919</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1533949430841476</v>
+        <v>0.1533949430841475</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1227407251637293</v>
+        <v>0.1216643953222234</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.190272109812733</v>
+        <v>0.188155560513486</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -1192,19 +1192,19 @@
         <v>62454</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50219</v>
+        <v>52020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75361</v>
+        <v>75773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1475949529490497</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1186804338561049</v>
+        <v>0.122937766224367</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.178098877124863</v>
+        <v>0.1790723934024354</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -1213,19 +1213,19 @@
         <v>136576</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118015</v>
+        <v>116426</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160039</v>
+        <v>158027</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1506871471578029</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1302088056379069</v>
+        <v>0.1284547896115729</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1765739214021529</v>
+        <v>0.1743546435825251</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>97601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>80707</v>
+        <v>80011</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116923</v>
+        <v>118406</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2019829984805364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1670223440543282</v>
+        <v>0.1655809679115174</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2419694010519411</v>
+        <v>0.245039799749158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>119</v>
@@ -1263,19 +1263,19 @@
         <v>89836</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74494</v>
+        <v>74476</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105633</v>
+        <v>104036</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2123066405834868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1760501635705025</v>
+        <v>0.1760056906736439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2496385805024009</v>
+        <v>0.2458646959046378</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -1284,19 +1284,19 @@
         <v>187437</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>165393</v>
+        <v>162914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>212669</v>
+        <v>211255</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2068027163387183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1824814070867147</v>
+        <v>0.1797459064851687</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.234641715054441</v>
+        <v>0.2330815544164616</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>235415</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>212979</v>
+        <v>211822</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>257808</v>
+        <v>257170</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4871873964677584</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4407562661890981</v>
+        <v>0.43836332917921</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5335304505720958</v>
+        <v>0.5322102582248512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>289</v>
@@ -1334,19 +1334,19 @@
         <v>198425</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>181524</v>
+        <v>181147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>216033</v>
+        <v>216777</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4689313548784509</v>
+        <v>0.468931354878451</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4289908784652419</v>
+        <v>0.4280984927119337</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5105429972482137</v>
+        <v>0.5123015241880865</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>528</v>
@@ -1355,19 +1355,19 @@
         <v>433840</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>404044</v>
+        <v>404302</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>461253</v>
+        <v>464959</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.478664341446067</v>
+        <v>0.4786643414460671</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4457902217885175</v>
+        <v>0.446074687640501</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5089095372715408</v>
+        <v>0.5129992373524188</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>86897</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72615</v>
+        <v>71778</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104166</v>
+        <v>104011</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1842559902276691</v>
+        <v>0.184255990227669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1539708500552567</v>
+        <v>0.152196408204184</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2208730955526322</v>
+        <v>0.2205431763720081</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1480,19 +1480,19 @@
         <v>35038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>26569</v>
+        <v>26398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45281</v>
+        <v>44235</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1875774685971406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1422386470354972</v>
+        <v>0.1413243525409699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2424181143370195</v>
+        <v>0.2368156901014933</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>151</v>
@@ -1501,19 +1501,19 @@
         <v>121935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>103496</v>
+        <v>104831</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140251</v>
+        <v>141058</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1851983023185558</v>
+        <v>0.1851983023185557</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1571933660027685</v>
+        <v>0.1592200289030254</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2130167949568774</v>
+        <v>0.2142425993256334</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>77833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>62635</v>
+        <v>63146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94970</v>
+        <v>95610</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.16503610345942</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1328097474542821</v>
+        <v>0.1338933680106717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2013723224920407</v>
+        <v>0.2027308135337142</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>38</v>
@@ -1551,19 +1551,19 @@
         <v>23412</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17286</v>
+        <v>16770</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31396</v>
+        <v>30484</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1253371198394078</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09254184705607804</v>
+        <v>0.08978107647561519</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1680842421079941</v>
+        <v>0.1631978025193354</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>118</v>
@@ -1572,19 +1572,19 @@
         <v>101245</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>83965</v>
+        <v>84378</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>121691</v>
+        <v>120576</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1537733980915681</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1275283662224482</v>
+        <v>0.1281560793036583</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1848279635014895</v>
+        <v>0.1831349027637997</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>84759</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68148</v>
+        <v>69413</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>105467</v>
+        <v>102301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1797223595230089</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1444994696803155</v>
+        <v>0.1471827053465962</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2236298069526158</v>
+        <v>0.2169166919998562</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1622,19 +1622,19 @@
         <v>35035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27483</v>
+        <v>26976</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>45218</v>
+        <v>45562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1875610679927671</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1471344233481827</v>
+        <v>0.144420439673498</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2420783381311498</v>
+        <v>0.2439211151090244</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>135</v>
@@ -1643,19 +1643,19 @@
         <v>119794</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>103263</v>
+        <v>100849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140930</v>
+        <v>139740</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1819462215947539</v>
+        <v>0.1819462215947538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1568382016337712</v>
+        <v>0.1531716294864719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.214048012396242</v>
+        <v>0.2122404873395584</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>222122</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198770</v>
+        <v>200504</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>244147</v>
+        <v>243605</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4709855467899021</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.421469246396397</v>
+        <v>0.4251466571703158</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5176858119421657</v>
+        <v>0.5165375644484576</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1693,19 +1693,19 @@
         <v>93306</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>81878</v>
+        <v>81796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>104398</v>
+        <v>104663</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4995243435706845</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4383418499501187</v>
+        <v>0.4379058994542058</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.558908328843883</v>
+        <v>0.5603249575957575</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>372</v>
@@ -1714,19 +1714,19 @@
         <v>315429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>291097</v>
+        <v>291986</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>342115</v>
+        <v>342243</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4790820779951222</v>
+        <v>0.4790820779951223</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4421262879835029</v>
+        <v>0.4434767959289044</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5196148224409999</v>
+        <v>0.5198087406267864</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>228444</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>202071</v>
+        <v>202687</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>255482</v>
+        <v>257889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2018335059109655</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1785329838105985</v>
+        <v>0.179076801347968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2257218807382472</v>
+        <v>0.2278487203901829</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>167</v>
@@ -1839,19 +1839,19 @@
         <v>124636</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>106210</v>
+        <v>108871</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>143730</v>
+        <v>144325</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1450012132728403</v>
+        <v>0.1450012132728402</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1235638880252415</v>
+        <v>0.1266598655254208</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1672144518950024</v>
+        <v>0.1679073064521207</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>410</v>
@@ -1860,19 +1860,19 @@
         <v>353080</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>317941</v>
+        <v>322222</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>390614</v>
+        <v>387134</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1773028002957993</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1596576349164859</v>
+        <v>0.1618069439318648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.196151077379108</v>
+        <v>0.1944033561168884</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>147162</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123063</v>
+        <v>122098</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171251</v>
+        <v>172758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1300197990713641</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1087276798068196</v>
+        <v>0.1078750039487327</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1513023784515444</v>
+        <v>0.1526345209028224</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>161</v>
@@ -1910,19 +1910,19 @@
         <v>121755</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104998</v>
+        <v>102539</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>139300</v>
+        <v>138757</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1416493745710197</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1221540420531868</v>
+        <v>0.1192939613472571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1620615893373015</v>
+        <v>0.1614293772926267</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>301</v>
@@ -1931,19 +1931,19 @@
         <v>268917</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239101</v>
+        <v>241309</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>305384</v>
+        <v>300378</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1350395102209372</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.120067260806656</v>
+        <v>0.1211758454895138</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1533517964752946</v>
+        <v>0.1508380874385057</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>231873</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>202215</v>
+        <v>203380</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>264082</v>
+        <v>266936</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2048631102021521</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1786601411738815</v>
+        <v>0.1796889071829177</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2333207484642282</v>
+        <v>0.2358417716423903</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>201</v>
@@ -1981,19 +1981,19 @@
         <v>152200</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>134443</v>
+        <v>131813</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>173152</v>
+        <v>170287</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.1770695393791422</v>
+        <v>0.1770695393791423</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1564101133466973</v>
+        <v>0.1533512242697312</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2014449678899131</v>
+        <v>0.19811133865516</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>408</v>
@@ -2002,19 +2002,19 @@
         <v>384073</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>350134</v>
+        <v>350251</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>424943</v>
+        <v>426049</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1928664816621985</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1758237216319177</v>
+        <v>0.175882101209026</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2133895515370285</v>
+        <v>0.2139451653882631</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>524364</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>489811</v>
+        <v>486697</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>564462</v>
+        <v>561763</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4632835848155183</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4327556454082949</v>
+        <v>0.4300038278314458</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4987108782144442</v>
+        <v>0.496325582096718</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>699</v>
@@ -2052,19 +2052,19 @@
         <v>460960</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>435499</v>
+        <v>435771</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>486825</v>
+        <v>487391</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.5362798727769978</v>
+        <v>0.5362798727769977</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5066581977817328</v>
+        <v>0.5069741514130734</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5663706268203009</v>
+        <v>0.5670286223253436</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1227</v>
@@ -2073,19 +2073,19 @@
         <v>985325</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>936171</v>
+        <v>943479</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1030807</v>
+        <v>1032631</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4947912078210649</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4701081649400881</v>
+        <v>0.4737777048869689</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5176306487550452</v>
+        <v>0.5185464993610238</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>142033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>119687</v>
+        <v>120368</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>162681</v>
+        <v>166346</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2500743482127022</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2107304401080335</v>
+        <v>0.2119290235774186</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2864285247013015</v>
+        <v>0.2928811160674292</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>281</v>
@@ -2198,19 +2198,19 @@
         <v>195889</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>176758</v>
+        <v>176509</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>217400</v>
+        <v>218629</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.236167370461365</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2131029239472781</v>
+        <v>0.212802896474369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2621012142994562</v>
+        <v>0.2635833748549679</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>423</v>
@@ -2219,19 +2219,19 @@
         <v>337922</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>306870</v>
+        <v>309559</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>367951</v>
+        <v>370768</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2418197091949648</v>
+        <v>0.2418197091949649</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2195984480037675</v>
+        <v>0.2215228168539194</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.263308372110774</v>
+        <v>0.2653247130702865</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>75193</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61207</v>
+        <v>60831</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>92947</v>
+        <v>92406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1323901146987242</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1077665107412491</v>
+        <v>0.1071029200224638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1636486954333363</v>
+        <v>0.16269683371792</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>209</v>
@@ -2269,19 +2269,19 @@
         <v>136536</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>119986</v>
+        <v>119892</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157013</v>
+        <v>156456</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1646104627309102</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1446575839855988</v>
+        <v>0.1445444501265307</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1892983085687053</v>
+        <v>0.1886262969522119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>290</v>
@@ -2290,19 +2290,19 @@
         <v>211729</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>187976</v>
+        <v>188528</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237224</v>
+        <v>236327</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1515148552992464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1345173188752252</v>
+        <v>0.1349122525721683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1697593501010279</v>
+        <v>0.1691176898648977</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>97128</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79243</v>
+        <v>78846</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115768</v>
+        <v>115372</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.17101089399929</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1395214531947858</v>
+        <v>0.1388222563742932</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2038303110325262</v>
+        <v>0.2031318817793903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>250</v>
@@ -2340,19 +2340,19 @@
         <v>159935</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141577</v>
+        <v>141557</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>180510</v>
+        <v>178615</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1928203443037865</v>
+        <v>0.1928203443037864</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1706883204448704</v>
+        <v>0.1706641791421898</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2176262825326946</v>
+        <v>0.2153418946988706</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>343</v>
@@ -2361,19 +2361,19 @@
         <v>257063</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>229040</v>
+        <v>231083</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>281863</v>
+        <v>284734</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1839561321853214</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1639026035810437</v>
+        <v>0.1653647917534598</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2017035355636852</v>
+        <v>0.2037575015041607</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>253610</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>229501</v>
+        <v>227746</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>281651</v>
+        <v>278772</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4465246430892836</v>
+        <v>0.4465246430892835</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4040774322953036</v>
+        <v>0.4009869553522063</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4958954648690908</v>
+        <v>0.490826891681472</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>548</v>
@@ -2411,19 +2411,19 @@
         <v>337090</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>314611</v>
+        <v>315909</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>360104</v>
+        <v>361874</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4064018225039384</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3793005827255931</v>
+        <v>0.380865632636713</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4341478205580813</v>
+        <v>0.4362823386290079</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>779</v>
@@ -2432,19 +2432,19 @@
         <v>590700</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>557477</v>
+        <v>555579</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>628574</v>
+        <v>628957</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4227093033204672</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3989346894518091</v>
+        <v>0.3975763202267876</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4498125488294579</v>
+        <v>0.4500861905625743</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>57298</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>38357</v>
+        <v>39148</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>80045</v>
+        <v>80779</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2432172905549018</v>
+        <v>0.2432172905549019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1628151984719278</v>
+        <v>0.166172075899154</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3397697830357091</v>
+        <v>0.3428877121860139</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>279</v>
@@ -2557,19 +2557,19 @@
         <v>212899</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>188477</v>
+        <v>189607</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>236846</v>
+        <v>238715</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2521655150156529</v>
+        <v>0.252165515015653</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2232391561279338</v>
+        <v>0.2245780042363748</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2805302841651455</v>
+        <v>0.2827436786927269</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>307</v>
@@ -2578,19 +2578,19 @@
         <v>270197</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>238917</v>
+        <v>239398</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>302330</v>
+        <v>307082</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2502133589747046</v>
+        <v>0.2502133589747047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2212464548971998</v>
+        <v>0.2216922563947333</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2799703102273649</v>
+        <v>0.2843707165274179</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>26783</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14619</v>
+        <v>15272</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>42671</v>
+        <v>43125</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1136880601155396</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.06205588131188741</v>
+        <v>0.06482601666318463</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1811276732875914</v>
+        <v>0.1830530094429056</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>156</v>
@@ -2628,19 +2628,19 @@
         <v>116837</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>96439</v>
+        <v>98664</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>135851</v>
+        <v>136801</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1383865267577762</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1142257674197063</v>
+        <v>0.1168611776800574</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1609070064549034</v>
+        <v>0.1620325587463952</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>170</v>
@@ -2649,19 +2649,19 @@
         <v>143620</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>119802</v>
+        <v>121237</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>168676</v>
+        <v>169529</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1329982778298146</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1109418611631374</v>
+        <v>0.1122705041777613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1562005200057105</v>
+        <v>0.1569909045255542</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>36407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>20822</v>
+        <v>19951</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>57550</v>
+        <v>56703</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1545368823554151</v>
+        <v>0.1545368823554152</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08838375477880814</v>
+        <v>0.08468721384416755</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2442860210196912</v>
+        <v>0.2406908069049329</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>189</v>
@@ -2699,19 +2699,19 @@
         <v>153093</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>131852</v>
+        <v>130415</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>176865</v>
+        <v>174247</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1813289361379342</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1561702330382679</v>
+        <v>0.1544683478917798</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2094863331863983</v>
+        <v>0.2063846684726435</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>204</v>
@@ -2720,19 +2720,19 @@
         <v>189499</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>162041</v>
+        <v>163250</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>220268</v>
+        <v>222443</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1754839475739609</v>
+        <v>0.175483947573961</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1500565393811722</v>
+        <v>0.1511765192763827</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2039770522287459</v>
+        <v>0.2059913977477279</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>115097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>91443</v>
+        <v>91879</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>139515</v>
+        <v>139665</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.4885577669741434</v>
+        <v>0.4885577669741437</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3881546748956863</v>
+        <v>0.3900039115443295</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5922050335432016</v>
+        <v>0.5928416298459578</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>535</v>
@@ -2770,19 +2770,19 @@
         <v>361453</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>335058</v>
+        <v>334486</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>389712</v>
+        <v>391574</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.4281190220886366</v>
+        <v>0.4281190220886367</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3968554511808181</v>
+        <v>0.3961782318735425</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4615908849619363</v>
+        <v>0.4637955608900509</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>589</v>
@@ -2791,19 +2791,19 @@
         <v>476550</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>438372</v>
+        <v>440417</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>516223</v>
+        <v>514867</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.4413044156215196</v>
+        <v>0.4413044156215197</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4059506678028513</v>
+        <v>0.4078437770845419</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4780439424092033</v>
+        <v>0.4767882290703186</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>678805</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>630466</v>
+        <v>626574</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>726263</v>
+        <v>728396</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.1972791757617771</v>
+        <v>0.197279175761777</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1832307359459707</v>
+        <v>0.1820996222426469</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2110717764276185</v>
+        <v>0.2116916184519616</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>966</v>
@@ -2916,19 +2916,19 @@
         <v>708973</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>666401</v>
+        <v>667194</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>749266</v>
+        <v>751323</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1952619810280813</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1835369134393881</v>
+        <v>0.1837554440412341</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2063593110737808</v>
+        <v>0.2069257660076151</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1646</v>
@@ -2937,19 +2937,19 @@
         <v>1387778</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1321234</v>
+        <v>1320734</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1457268</v>
+        <v>1452530</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1962434729599861</v>
+        <v>0.196243472959986</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1868336532857275</v>
+        <v>0.1867629627680038</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.206069915289874</v>
+        <v>0.205399982290587</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>486137</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>442049</v>
+        <v>438446</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>530424</v>
+        <v>531395</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1412848179560412</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1284713991751945</v>
+        <v>0.1274244348450737</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1541556020729774</v>
+        <v>0.1544378368613715</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>737</v>
@@ -2987,19 +2987,19 @@
         <v>519651</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>482096</v>
+        <v>482284</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>558493</v>
+        <v>556976</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1431197607130806</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1327765316969609</v>
+        <v>0.1328283914835368</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.153817432190391</v>
+        <v>0.153399646873019</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1207</v>
@@ -3008,19 +3008,19 @@
         <v>1005788</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>950566</v>
+        <v>952222</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1065546</v>
+        <v>1066891</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1422269458145202</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1344180140307897</v>
+        <v>0.1346521564753283</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1506772265148561</v>
+        <v>0.150867434919706</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>666188</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>617875</v>
+        <v>615239</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>722225</v>
+        <v>725052</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1936124306334614</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1795714873336274</v>
+        <v>0.1788052466593384</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2098982150534641</v>
+        <v>0.2107199770539553</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>938</v>
@@ -3058,19 +3058,19 @@
         <v>684124</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>642036</v>
+        <v>644220</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>729527</v>
+        <v>728133</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1884181502197315</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1768266390471745</v>
+        <v>0.1774278823406852</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2009229780043687</v>
+        <v>0.2005390560967426</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1548</v>
@@ -3079,19 +3079,19 @@
         <v>1350312</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1288597</v>
+        <v>1286876</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1421308</v>
+        <v>1418984</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1909454938782123</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1822184359750879</v>
+        <v>0.1819751334253322</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.200984936228242</v>
+        <v>0.2006563654248116</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>1609703</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1550993</v>
+        <v>1541843</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1671147</v>
+        <v>1671981</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.4678235756487205</v>
+        <v>0.4678235756487203</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.450760905904352</v>
+        <v>0.4481017803559912</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4856810070834362</v>
+        <v>0.4859234140893287</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2597</v>
@@ -3129,19 +3129,19 @@
         <v>1718133</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1666589</v>
+        <v>1666096</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>1771216</v>
+        <v>1771947</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4732001080391065</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4590039977852616</v>
+        <v>0.4588682489011572</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4878199553557067</v>
+        <v>0.4880213151019877</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>4136</v>
@@ -3150,19 +3150,19 @@
         <v>3327836</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>3238461</v>
+        <v>3242880</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>3415514</v>
+        <v>3410195</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4705840873472815</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4579456494662113</v>
+        <v>0.4585705649489482</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4829824325357912</v>
+        <v>0.4822302891948031</v>
       </c>
     </row>
     <row r="38">
